--- a/sap_access_management_deletion_Dispatcher/Data/Config.xlsx
+++ b/sap_access_management_deletion_Dispatcher/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\sap_access_management_deletion_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE9FEE1-C36D-493A-B4D9-F28B5FF2A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36776A5-0AA0-4BA8-B27C-0FBBE316B062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>SAP_AccessModificationsInputFile</t>
+  </si>
+  <si>
+    <t>SAP_AccessManagement_Deletion_webhookURL</t>
   </si>
 </sst>
 </file>
@@ -3076,7 +3079,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3294,7 +3297,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/sap_access_management_deletion_Dispatcher/Data/Config.xlsx
+++ b/sap_access_management_deletion_Dispatcher/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\sap_access_management_deletion_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36776A5-0AA0-4BA8-B27C-0FBBE316B062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2916BB8-CFE9-4117-9867-37377EF898C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>SAP_AccessManagement_Deletion_webhookURL</t>
+  </si>
+  <si>
+    <t>SF Global/AMRPARPA-FA/SAP_Access_Managment_Deletion</t>
   </si>
 </sst>
 </file>
@@ -1827,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2097,7 +2100,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3076,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3266,45 +3276,38 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>92</v>
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-    </row>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4275,7 +4278,6 @@
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sap_access_management_deletion_Dispatcher/Data/Config.xlsx
+++ b/sap_access_management_deletion_Dispatcher/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\sap_access_management_deletion_Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Dhananjay\DateChange\sap_access_management_deletion_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2916BB8-CFE9-4117-9867-37377EF898C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E01B1-B401-4DB1-8277-EC5AED11FDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -174,70 +174,9 @@
     <t>SAP_AccessManagement_BOTUser</t>
   </si>
   <si>
-    <t>SubjectMandatoryErrorEmail</t>
-  </si>
-  <si>
-    <t>Error - Mandatory Field Missing – [SNOW Ticket Number]</t>
-  </si>
-  <si>
-    <t>MandatoryErrorBodyEmail</t>
-  </si>
-  <si>
-    <t>Dear Team, 
-Robot failed to get the information from the field. Please review the file. 
-SNOW Ticket Number: [SNOW Ticket Number]
-SAP User ID                 : [SAP User ID]
-L1 Email Address        : [L1 Email Address]
-[ErrorMessage]
-Thanks and Regards, 
-Automation Bot
-*This message is generated by robot, please don’t reply to this message.</t>
-  </si>
-  <si>
-    <t>SubjectCompletedEmail</t>
-  </si>
-  <si>
-    <t>Completed Task Automation – [SNOW Ticket Number]</t>
-  </si>
-  <si>
-    <t>CompletedBodyEmail</t>
-  </si>
-  <si>
-    <t>Dear Team,  
-User Access Management Automation "[User Maintenance]" has been done for user [SAP User ID] by the robot. 
-Please Review Completed folder to see the result. 
-Thanks and Regards, 
-Automation Bot 
-*This message is generated by robot, please don’t reply to this message.</t>
-  </si>
-  <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>Delete Account</t>
-  </si>
-  <si>
-    <t>LogonPath</t>
-  </si>
-  <si>
     <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
   <si>
-    <t>In_OutlookPath</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Microsoft Office\root\Office16\OUTLOOK.EXE</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>deepthi.dixit@external.danone.com</t>
-  </si>
-  <si>
-    <t>Robot_EmailAddress</t>
-  </si>
-  <si>
     <t>ExceptionMessage_ConsecutiveErrors</t>
   </si>
   <si>
@@ -262,33 +201,18 @@
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>SAP_AccessDelete_Client</t>
   </si>
   <si>
     <t>SAP_AccessDelete_Language</t>
   </si>
   <si>
-    <t>SAP_AccessDelete_FolderOriginal</t>
-  </si>
-  <si>
     <t>SAP_AccessDelete_SnowInputFile</t>
   </si>
   <si>
-    <t>SAP_AccessDelete_FolderSODConflictScreenshot</t>
-  </si>
-  <si>
     <t>SAP_AccessDelete_FolderErrorScreenshot</t>
   </si>
   <si>
-    <t>SAP_AccessDelete_FolderDownload</t>
-  </si>
-  <si>
-    <t>SAP_AccessDelete_FolderErrortScreenshot</t>
-  </si>
-  <si>
     <t>SAP_AccessDelete_FolderCompleted</t>
   </si>
   <si>
@@ -298,9 +222,6 @@
     <t>SAP_AccessDelete_FolderDocExtract</t>
   </si>
   <si>
-    <t>SAP_AccessDelete_FolderArchive</t>
-  </si>
-  <si>
     <t>SAP_AccessDeleteTCode</t>
   </si>
   <si>
@@ -313,9 +234,6 @@
     <t>Outlook_ApplicationID</t>
   </si>
   <si>
-    <t>SAP_AccessDeletion_OchestratorFolderPath</t>
-  </si>
-  <si>
     <t>SharedOutlookEmail</t>
   </si>
   <si>
@@ -328,14 +246,29 @@
     <t>SAP_AccessManagement_Deletion_webhookURL</t>
   </si>
   <si>
-    <t>SF Global/AMRPARPA-FA/SAP_Access_Managment_Deletion</t>
+    <t>SAP_AccessDelete_ActivejobTCode</t>
+  </si>
+  <si>
+    <t>SapExecutionPath</t>
+  </si>
+  <si>
+    <t>Path To SAP</t>
+  </si>
+  <si>
+    <t>SAP BOT User credetials</t>
+  </si>
+  <si>
+    <t>C:\UiPath\SAP_AccessManagement\DocumentScreenshots</t>
+  </si>
+  <si>
+    <t>C:\UiPath\SAP_AccessManagement\DocumentExtract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,19 +287,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -381,20 +314,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -749,95 +676,31 @@
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1795,34 +1658,9 @@
     <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{BE371AB4-8185-4D65-A95D-C6B0D5A16D8B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1830,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2060,53 +1898,48 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3086,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3133,180 +2966,144 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>80</v>
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>87</v>
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-    </row>
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4271,14 +4068,8 @@
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>